--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,6 +797,2183 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131167677</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>613466</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6997416</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131167665</v>
+      </c>
+      <c r="B4" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>613392</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6997407</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131167657</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>613277</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6997508</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131167656</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>613378</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6997448</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131167676</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>613386</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6997436</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131167674</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>613263</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6997473</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131167679</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>613260</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6997542</v>
+      </c>
+      <c r="S9" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Garnlav i rikliga mängder på främst tall inom en radie av ca 50m</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131167668</v>
+      </c>
+      <c r="B10" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>613345</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6997328</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Observerad på två närliggande granar</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131167653</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>613336</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6997445</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131167651</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>613285</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6997537</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131167669</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>613256</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6997380</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131167650</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>613278</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6997506</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Färska ringhack  på tall</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131167670</v>
+      </c>
+      <c r="B15" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>613271</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6997395</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Observerad på tre granar inom 10m radie</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131167658</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>613330</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6997326</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131167655</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>613285</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6997398</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131167671</v>
+      </c>
+      <c r="B18" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>613234</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6997446</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlav på gran inom en  radie av ca 25m</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131167652</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>613264</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6997532</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131167660</v>
+      </c>
+      <c r="B20" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>613263</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6997532</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131167654</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>613254</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6997565</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131167674</v>
+        <v>131167679</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>613263</v>
+        <v>613260</v>
       </c>
       <c r="R8" t="n">
-        <v>6997473</v>
+        <v>6997542</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1426,6 +1426,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Garnlav i rikliga mängder på främst tall inom en radie av ca 50m</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1468,7 +1473,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131167679</v>
+        <v>131167674</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1506,13 +1511,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>613260</v>
+        <v>613263</v>
       </c>
       <c r="R9" t="n">
-        <v>6997542</v>
+        <v>6997473</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1542,11 +1547,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Garnlav i rikliga mängder på främst tall inom en radie av ca 50m</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2615,7 +2615,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167652</v>
+        <v>131167654</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2643,33 +2643,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>613264</v>
+        <v>613254</v>
       </c>
       <c r="R19" t="n">
-        <v>6997532</v>
+        <v>6997565</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2699,24 +2691,14 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2743,10 +2725,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167660</v>
+        <v>131167652</v>
       </c>
       <c r="B20" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2754,21 +2736,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2794,7 +2776,7 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613263</v>
+        <v>613264</v>
       </c>
       <c r="R20" t="n">
         <v>6997532</v>
@@ -2829,7 +2811,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2839,7 +2821,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2866,10 +2853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131167654</v>
+        <v>131167660</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2877,42 +2864,50 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>613254</v>
+        <v>613263</v>
       </c>
       <c r="R21" t="n">
-        <v>6997565</v>
+        <v>6997532</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2942,14 +2937,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -802,7 +802,7 @@
         <v>131167677</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>131167665</v>
       </c>
       <c r="B4" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>131167676</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>131167679</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>131167674</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>131167668</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131167653</v>
+        <v>131167669</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1721,54 +1721,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613336</v>
+        <v>613256</v>
       </c>
       <c r="R11" t="n">
-        <v>6997445</v>
+        <v>6997380</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1798,29 +1781,35 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>13:48</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1837,7 +1826,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131167651</v>
+        <v>131167653</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1865,25 +1854,37 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>613285</v>
+        <v>613336</v>
       </c>
       <c r="R12" t="n">
-        <v>6997537</v>
+        <v>6997445</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1913,14 +1914,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1947,10 +1953,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131167669</v>
+        <v>131167651</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1958,26 +1964,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1985,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>613256</v>
+        <v>613285</v>
       </c>
       <c r="R13" t="n">
-        <v>6997380</v>
+        <v>6997537</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2023,30 +2034,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131167650</v>
+        <v>131167670</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2074,31 +2074,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2106,10 +2101,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>613278</v>
+        <v>613271</v>
       </c>
       <c r="R14" t="n">
-        <v>6997506</v>
+        <v>6997395</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2146,7 +2141,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Färska ringhack  på tall</t>
+          <t>Observerad på tre granar inom 10m radie</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2155,6 +2150,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2173,10 +2169,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131167670</v>
+        <v>131167650</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2184,26 +2180,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2211,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>613271</v>
+        <v>613278</v>
       </c>
       <c r="R15" t="n">
-        <v>6997395</v>
+        <v>6997506</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2251,7 +2252,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Observerad på tre granar inom 10m radie</t>
+          <t>Färska ringhack  på tall</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2260,7 +2261,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>131167671</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131167669</v>
+        <v>131167653</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1721,37 +1721,54 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613256</v>
+        <v>613336</v>
       </c>
       <c r="R11" t="n">
-        <v>6997380</v>
+        <v>6997445</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1781,35 +1798,29 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>13:48</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1826,7 +1837,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131167653</v>
+        <v>131167651</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1854,37 +1865,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>613336</v>
+        <v>613285</v>
       </c>
       <c r="R12" t="n">
-        <v>6997445</v>
+        <v>6997537</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1914,19 +1913,14 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>13:48</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1953,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131167651</v>
+        <v>131167669</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1964,31 +1958,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1996,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>613285</v>
+        <v>613256</v>
       </c>
       <c r="R13" t="n">
-        <v>6997537</v>
+        <v>6997380</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2034,19 +2023,30 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131167670</v>
+        <v>131167650</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2074,26 +2074,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2101,10 +2106,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>613271</v>
+        <v>613278</v>
       </c>
       <c r="R14" t="n">
-        <v>6997395</v>
+        <v>6997506</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2141,7 +2146,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Observerad på tre granar inom 10m radie</t>
+          <t>Färska ringhack  på tall</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2150,7 +2155,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2169,10 +2173,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131167650</v>
+        <v>131167670</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2180,31 +2184,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2212,10 +2211,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>613278</v>
+        <v>613271</v>
       </c>
       <c r="R15" t="n">
-        <v>6997506</v>
+        <v>6997395</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2252,7 +2251,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Färska ringhack  på tall</t>
+          <t>Observerad på tre granar inom 10m radie</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2261,6 +2260,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167654</v>
+        <v>131167652</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2643,25 +2643,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>613254</v>
+        <v>613264</v>
       </c>
       <c r="R19" t="n">
-        <v>6997565</v>
+        <v>6997532</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2691,14 +2699,24 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2725,7 +2743,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167652</v>
+        <v>131167654</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2753,33 +2771,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613264</v>
+        <v>613254</v>
       </c>
       <c r="R20" t="n">
-        <v>6997532</v>
+        <v>6997565</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2809,24 +2819,14 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131167650</v>
+        <v>131167670</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2074,31 +2074,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2106,10 +2101,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>613278</v>
+        <v>613271</v>
       </c>
       <c r="R14" t="n">
-        <v>6997506</v>
+        <v>6997395</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2146,7 +2141,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Färska ringhack  på tall</t>
+          <t>Observerad på tre granar inom 10m radie</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2155,6 +2150,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2173,10 +2169,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131167670</v>
+        <v>131167650</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2184,26 +2180,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2211,10 +2212,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>613271</v>
+        <v>613278</v>
       </c>
       <c r="R15" t="n">
-        <v>6997395</v>
+        <v>6997506</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2251,7 +2252,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Observerad på tre granar inom 10m radie</t>
+          <t>Färska ringhack  på tall</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2260,7 +2261,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2279,32 +2279,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131167658</v>
+        <v>131167655</v>
       </c>
       <c r="B16" t="n">
-        <v>57073</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100138</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2322,10 +2322,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>613330</v>
+        <v>613285</v>
       </c>
       <c r="R16" t="n">
-        <v>6997326</v>
+        <v>6997398</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2358,6 +2358,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2384,32 +2389,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131167655</v>
+        <v>131167658</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2417,7 +2422,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2427,10 +2432,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>613285</v>
+        <v>613330</v>
       </c>
       <c r="R17" t="n">
-        <v>6997398</v>
+        <v>6997326</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2463,11 +2468,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2743,10 +2743,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167654</v>
+        <v>131167660</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2754,42 +2754,50 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613254</v>
+        <v>613263</v>
       </c>
       <c r="R20" t="n">
-        <v>6997565</v>
+        <v>6997532</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2819,14 +2827,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2853,10 +2866,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131167660</v>
+        <v>131167654</v>
       </c>
       <c r="B21" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,50 +2877,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>613263</v>
+        <v>613254</v>
       </c>
       <c r="R21" t="n">
-        <v>6997532</v>
+        <v>6997565</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2937,19 +2942,14 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>12:47</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>12:47</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2973,6 +2973,122 @@
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131244268</v>
+      </c>
+      <c r="B22" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>613250</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6997320</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131167653</v>
+        <v>131167669</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1721,54 +1721,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613336</v>
+        <v>613256</v>
       </c>
       <c r="R11" t="n">
-        <v>6997445</v>
+        <v>6997380</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1798,29 +1781,35 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>13:48</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1837,7 +1826,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131167651</v>
+        <v>131167653</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1865,25 +1854,37 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>613285</v>
+        <v>613336</v>
       </c>
       <c r="R12" t="n">
-        <v>6997537</v>
+        <v>6997445</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1913,14 +1914,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1947,10 +1953,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131167669</v>
+        <v>131167651</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1958,26 +1964,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1985,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>613256</v>
+        <v>613285</v>
       </c>
       <c r="R13" t="n">
-        <v>6997380</v>
+        <v>6997537</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2023,30 +2034,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2279,32 +2279,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131167655</v>
+        <v>131167658</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2322,10 +2322,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>613285</v>
+        <v>613330</v>
       </c>
       <c r="R16" t="n">
-        <v>6997398</v>
+        <v>6997326</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2358,11 +2358,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2389,32 +2384,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131167658</v>
+        <v>131167655</v>
       </c>
       <c r="B17" t="n">
-        <v>57073</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100138</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2422,7 +2417,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2432,10 +2427,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>613330</v>
+        <v>613285</v>
       </c>
       <c r="R17" t="n">
-        <v>6997326</v>
+        <v>6997398</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2468,6 +2463,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2615,7 +2615,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167652</v>
+        <v>131167654</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2643,33 +2643,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>613264</v>
+        <v>613254</v>
       </c>
       <c r="R19" t="n">
-        <v>6997532</v>
+        <v>6997565</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2699,24 +2691,14 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2743,10 +2725,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167660</v>
+        <v>131167652</v>
       </c>
       <c r="B20" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2754,21 +2736,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2794,7 +2776,7 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613263</v>
+        <v>613264</v>
       </c>
       <c r="R20" t="n">
         <v>6997532</v>
@@ -2829,7 +2811,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2839,7 +2821,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2866,10 +2853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131167654</v>
+        <v>131167660</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2877,42 +2864,50 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>613254</v>
+        <v>613263</v>
       </c>
       <c r="R21" t="n">
-        <v>6997565</v>
+        <v>6997532</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2942,14 +2937,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131167669</v>
+        <v>131167651</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1721,26 +1721,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1748,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613256</v>
+        <v>613285</v>
       </c>
       <c r="R11" t="n">
-        <v>6997380</v>
+        <v>6997537</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1786,30 +1791,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1953,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131167651</v>
+        <v>131167669</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1964,31 +1958,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1996,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>613285</v>
+        <v>613256</v>
       </c>
       <c r="R13" t="n">
-        <v>6997537</v>
+        <v>6997380</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2034,19 +2023,30 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2279,32 +2279,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131167658</v>
+        <v>131167655</v>
       </c>
       <c r="B16" t="n">
-        <v>57073</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100138</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2322,10 +2322,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>613330</v>
+        <v>613285</v>
       </c>
       <c r="R16" t="n">
-        <v>6997326</v>
+        <v>6997398</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2358,6 +2358,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2384,32 +2389,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131167655</v>
+        <v>131167658</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2417,7 +2422,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2427,10 +2432,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>613285</v>
+        <v>613330</v>
       </c>
       <c r="R17" t="n">
-        <v>6997398</v>
+        <v>6997326</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2463,11 +2468,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2615,7 +2615,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167654</v>
+        <v>131167652</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2643,25 +2643,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>613254</v>
+        <v>613264</v>
       </c>
       <c r="R19" t="n">
-        <v>6997565</v>
+        <v>6997532</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2691,14 +2699,24 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2725,7 +2743,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167652</v>
+        <v>131167654</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2753,33 +2771,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613264</v>
+        <v>613254</v>
       </c>
       <c r="R20" t="n">
-        <v>6997532</v>
+        <v>6997565</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2809,24 +2819,14 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -802,7 +802,7 @@
         <v>131167677</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>131167665</v>
       </c>
       <c r="B4" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>131167676</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>131167679</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>131167674</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>131167668</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131167651</v>
+        <v>131167669</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1721,31 +1721,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1753,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613285</v>
+        <v>613256</v>
       </c>
       <c r="R11" t="n">
-        <v>6997537</v>
+        <v>6997380</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1791,19 +1786,30 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1947,10 +1953,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131167669</v>
+        <v>131167651</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1958,26 +1964,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1985,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>613256</v>
+        <v>613285</v>
       </c>
       <c r="R13" t="n">
-        <v>6997380</v>
+        <v>6997537</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2023,30 +2034,19 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2066,7 +2066,7 @@
         <v>131167670</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2279,32 +2279,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131167655</v>
+        <v>131167658</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2322,10 +2322,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>613285</v>
+        <v>613330</v>
       </c>
       <c r="R16" t="n">
-        <v>6997398</v>
+        <v>6997326</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2358,11 +2358,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2389,32 +2384,32 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131167658</v>
+        <v>131167655</v>
       </c>
       <c r="B17" t="n">
-        <v>57073</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100138</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2422,7 +2417,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2432,10 +2427,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>613330</v>
+        <v>613285</v>
       </c>
       <c r="R17" t="n">
-        <v>6997326</v>
+        <v>6997398</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2468,6 +2463,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2497,7 +2497,7 @@
         <v>131167671</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>131244268</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/artfynd/A 1170-2026 artfynd.xlsx
+++ b/artfynd/A 1170-2026 artfynd.xlsx
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131167669</v>
+        <v>131167653</v>
       </c>
       <c r="B11" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1721,37 +1721,54 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613256</v>
+        <v>613336</v>
       </c>
       <c r="R11" t="n">
-        <v>6997380</v>
+        <v>6997445</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1781,35 +1798,29 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>13:48</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1826,7 +1837,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131167653</v>
+        <v>131167651</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1854,37 +1865,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>613336</v>
+        <v>613285</v>
       </c>
       <c r="R12" t="n">
-        <v>6997445</v>
+        <v>6997537</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1914,19 +1913,14 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>13:47</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>13:48</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1953,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131167651</v>
+        <v>131167669</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1964,31 +1958,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1996,10 +1985,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>613285</v>
+        <v>613256</v>
       </c>
       <c r="R13" t="n">
-        <v>6997537</v>
+        <v>6997380</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2034,19 +2023,30 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2615,7 +2615,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131167652</v>
+        <v>131167654</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2643,33 +2643,25 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>613264</v>
+        <v>613254</v>
       </c>
       <c r="R19" t="n">
-        <v>6997532</v>
+        <v>6997565</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2699,24 +2691,14 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>12:48</t>
-        </is>
-      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2743,7 +2725,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131167654</v>
+        <v>131167652</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2771,25 +2753,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613254</v>
+        <v>613264</v>
       </c>
       <c r="R20" t="n">
-        <v>6997565</v>
+        <v>6997532</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2819,14 +2809,24 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Hackspetten syns i profil på ett smalt träd i centrum av den tagna bilden.</t>
         </is>
       </c>
       <c r="AD20" t="b">
